--- a/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-sdo-task.xlsx
+++ b/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:46:48+00:00</t>
+    <t>2025-10-06T13:06:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -900,7 +900,7 @@
     <t>Human-readable explanation of task</t>
   </si>
   <si>
-    <t>A free-text description of what is to be performed.</t>
+    <t>A utiliser pour transmettre les commentaires de la MDPH lors d’une annulation d’une notification ou d’un refus de l’admission impossible ou d’une réactivation d’une notification et/ou de l'usager lors d’une annulation d’une notification ou d’une réactivation une notification.</t>
   </si>
   <si>
     <t>.text</t>
@@ -1571,7 +1571,7 @@
     <t>dateStatutESMS</t>
   </si>
   <si>
-    <t>Il s'agit de la date réelle d'entrée ou de sortie de l'établissement.</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut de l'ESMS.</t>
   </si>
   <si>
     <t>Task.input:dateStatutESMS.id</t>

--- a/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-sdo-task.xlsx
+++ b/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T13:06:28+00:00</t>
+    <t>2025-10-06T13:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -897,10 +897,10 @@
     <t>Task.description</t>
   </si>
   <si>
-    <t>Human-readable explanation of task</t>
-  </si>
-  <si>
     <t>A utiliser pour transmettre les commentaires de la MDPH lors d’une annulation d’une notification ou d’un refus de l’admission impossible ou d’une réactivation d’une notification et/ou de l'usager lors d’une annulation d’une notification ou d’une réactivation une notification.</t>
+  </si>
+  <si>
+    <t>A free-text description of what is to be performed.</t>
   </si>
   <si>
     <t>.text</t>

--- a/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-sdo-task.xlsx
+++ b/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T13:32:44+00:00</t>
+    <t>2025-10-09T08:13:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
